--- a/Input/560114.xlsx
+++ b/Input/560114.xlsx
@@ -12,116 +12,116 @@
     <sheet name="Enquiries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A108267741W">Data1!$P$1:$P$10,Data1!$P$11:$P$243</definedName>
-    <definedName name="A108267741W_Data">Data1!$P$11:$P$243</definedName>
-    <definedName name="A108267741W_Latest">Data1!$P$243</definedName>
-    <definedName name="A108267742X">Data1!$G$1:$G$10,Data1!$G$215:$G$243</definedName>
-    <definedName name="A108267742X_Data">Data1!$G$215:$G$243</definedName>
-    <definedName name="A108267742X_Latest">Data1!$G$243</definedName>
-    <definedName name="A108267762J">Data1!$R$1:$R$10,Data1!$R$11:$R$243</definedName>
-    <definedName name="A108267762J_Data">Data1!$R$11:$R$243</definedName>
-    <definedName name="A108267762J_Latest">Data1!$R$243</definedName>
-    <definedName name="A108267763K">Data1!$I$1:$I$10,Data1!$I$215:$I$243</definedName>
-    <definedName name="A108267763K_Data">Data1!$I$215:$I$243</definedName>
-    <definedName name="A108267763K_Latest">Data1!$I$243</definedName>
-    <definedName name="A108269260V">Data1!$AB$1:$AB$10,Data1!$AB$11:$AB$243</definedName>
-    <definedName name="A108269260V_Data">Data1!$AB$11:$AB$243</definedName>
-    <definedName name="A108269260V_Latest">Data1!$AB$243</definedName>
-    <definedName name="A108272256L">Data1!$O$1:$O$10,Data1!$O$11:$O$243</definedName>
-    <definedName name="A108272256L_Data">Data1!$O$11:$O$243</definedName>
-    <definedName name="A108272256L_Latest">Data1!$O$243</definedName>
-    <definedName name="A108272257R">Data1!$F$1:$F$10,Data1!$F$215:$F$243</definedName>
-    <definedName name="A108272257R_Data">Data1!$F$215:$F$243</definedName>
-    <definedName name="A108272257R_Latest">Data1!$F$243</definedName>
-    <definedName name="A108272298K">Data1!$N$1:$N$10,Data1!$N$11:$N$243</definedName>
-    <definedName name="A108272298K_Data">Data1!$N$11:$N$243</definedName>
-    <definedName name="A108272298K_Latest">Data1!$N$243</definedName>
-    <definedName name="A108272299L">Data1!$E$1:$E$10,Data1!$E$215:$E$243</definedName>
-    <definedName name="A108272299L_Data">Data1!$E$215:$E$243</definedName>
-    <definedName name="A108272299L_Latest">Data1!$E$243</definedName>
-    <definedName name="A108273712X">Data1!$Y$1:$Y$10,Data1!$Y$11:$Y$243</definedName>
-    <definedName name="A108273712X_Data">Data1!$Y$11:$Y$243</definedName>
-    <definedName name="A108273712X_Latest">Data1!$Y$243</definedName>
-    <definedName name="A108273775J">Data1!$T$1:$T$10,Data1!$T$11:$T$243</definedName>
-    <definedName name="A108273775J_Data">Data1!$T$11:$T$243</definedName>
-    <definedName name="A108273775J_Latest">Data1!$T$243</definedName>
-    <definedName name="A108275280T">Data1!$AI$1:$AI$10,Data1!$AI$11:$AI$243</definedName>
-    <definedName name="A108275280T_Data">Data1!$AI$11:$AI$243</definedName>
-    <definedName name="A108275280T_Latest">Data1!$AI$243</definedName>
-    <definedName name="A108275301T">Data1!$AK$1:$AK$10,Data1!$AK$11:$AK$243</definedName>
-    <definedName name="A108275301T_Data">Data1!$AK$11:$AK$243</definedName>
-    <definedName name="A108275301T_Latest">Data1!$AK$243</definedName>
-    <definedName name="A108276981A">Data1!$K$1:$K$10,Data1!$K$11:$K$243</definedName>
-    <definedName name="A108276981A_Data">Data1!$K$11:$K$243</definedName>
-    <definedName name="A108276981A_Latest">Data1!$K$243</definedName>
-    <definedName name="A108276982C">Data1!$B$1:$B$10,Data1!$B$215:$B$243</definedName>
-    <definedName name="A108276982C_Data">Data1!$B$215:$B$243</definedName>
-    <definedName name="A108276982C_Latest">Data1!$B$243</definedName>
-    <definedName name="A108279886J">Data1!$AJ$1:$AJ$10,Data1!$AJ$11:$AJ$243</definedName>
-    <definedName name="A108279886J_Data">Data1!$AJ$11:$AJ$243</definedName>
-    <definedName name="A108279886J_Latest">Data1!$AJ$243</definedName>
-    <definedName name="A108284387K">Data1!$AC$1:$AC$10,Data1!$AC$11:$AC$243</definedName>
-    <definedName name="A108284387K_Data">Data1!$AC$11:$AC$243</definedName>
-    <definedName name="A108284387K_Latest">Data1!$AC$243</definedName>
-    <definedName name="A108287418V">Data1!$X$1:$X$10,Data1!$X$11:$X$243</definedName>
-    <definedName name="A108287418V_Data">Data1!$X$11:$X$243</definedName>
-    <definedName name="A108287418V_Latest">Data1!$X$243</definedName>
-    <definedName name="A108287425T">Data1!$Z$1:$Z$10,Data1!$Z$11:$Z$243</definedName>
-    <definedName name="A108287425T_Data">Data1!$Z$11:$Z$243</definedName>
-    <definedName name="A108287425T_Latest">Data1!$Z$243</definedName>
-    <definedName name="A108287467R">Data1!$U$1:$U$10,Data1!$U$11:$U$243</definedName>
-    <definedName name="A108287467R_Data">Data1!$U$11:$U$243</definedName>
-    <definedName name="A108287467R_Latest">Data1!$U$243</definedName>
-    <definedName name="A108288930X">Data1!$AD$1:$AD$10,Data1!$AD$11:$AD$243</definedName>
-    <definedName name="A108288930X_Data">Data1!$AD$11:$AD$243</definedName>
-    <definedName name="A108288930X_Latest">Data1!$AD$243</definedName>
-    <definedName name="A108290302A">Data1!$Q$1:$Q$10,Data1!$Q$11:$Q$243</definedName>
-    <definedName name="A108290302A_Data">Data1!$Q$11:$Q$243</definedName>
-    <definedName name="A108290302A_Latest">Data1!$Q$243</definedName>
-    <definedName name="A108290303C">Data1!$H$1:$H$10,Data1!$H$215:$H$243</definedName>
-    <definedName name="A108290303C_Data">Data1!$H$215:$H$243</definedName>
-    <definedName name="A108290303C_Latest">Data1!$H$243</definedName>
-    <definedName name="A108290330K">Data1!$L$1:$L$10,Data1!$L$11:$L$243</definedName>
-    <definedName name="A108290330K_Data">Data1!$L$11:$L$243</definedName>
-    <definedName name="A108290330K_Latest">Data1!$L$243</definedName>
-    <definedName name="A108290331L">Data1!$C$1:$C$10,Data1!$C$215:$C$243</definedName>
-    <definedName name="A108290331L_Data">Data1!$C$215:$C$243</definedName>
-    <definedName name="A108290331L_Latest">Data1!$C$243</definedName>
-    <definedName name="A108293403T">Data1!$AG$1:$AG$10,Data1!$AG$11:$AG$243</definedName>
-    <definedName name="A108293403T_Data">Data1!$AG$11:$AG$243</definedName>
-    <definedName name="A108293403T_Latest">Data1!$AG$243</definedName>
-    <definedName name="A108293417F">Data1!$AH$1:$AH$10,Data1!$AH$11:$AH$243</definedName>
-    <definedName name="A108293417F_Data">Data1!$AH$11:$AH$243</definedName>
-    <definedName name="A108293417F_Latest">Data1!$AH$243</definedName>
-    <definedName name="A108295076F">Data1!$S$1:$S$10,Data1!$S$11:$S$243</definedName>
-    <definedName name="A108295076F_Data">Data1!$S$11:$S$243</definedName>
-    <definedName name="A108295076F_Latest">Data1!$S$243</definedName>
-    <definedName name="A108295077J">Data1!$J$1:$J$10,Data1!$J$215:$J$243</definedName>
-    <definedName name="A108295077J_Data">Data1!$J$215:$J$243</definedName>
-    <definedName name="A108295077J_Latest">Data1!$J$243</definedName>
-    <definedName name="A108296693F">Data1!$W$1:$W$10,Data1!$W$11:$W$243</definedName>
-    <definedName name="A108296693F_Data">Data1!$W$11:$W$243</definedName>
-    <definedName name="A108296693F_Latest">Data1!$W$243</definedName>
-    <definedName name="A108296700T">Data1!$V$1:$V$10,Data1!$V$11:$V$243</definedName>
-    <definedName name="A108296700T_Data">Data1!$V$11:$V$243</definedName>
-    <definedName name="A108296700T_Latest">Data1!$V$243</definedName>
-    <definedName name="A108296714F">Data1!$AA$1:$AA$10,Data1!$AA$11:$AA$243</definedName>
-    <definedName name="A108296714F_Data">Data1!$AA$11:$AA$243</definedName>
-    <definedName name="A108296714F_Latest">Data1!$AA$243</definedName>
-    <definedName name="A108298198J">Data1!$AF$1:$AF$10,Data1!$AF$11:$AF$243</definedName>
-    <definedName name="A108298198J_Data">Data1!$AF$11:$AF$243</definedName>
-    <definedName name="A108298198J_Latest">Data1!$AF$243</definedName>
-    <definedName name="A108298205V">Data1!$AE$1:$AE$10,Data1!$AE$11:$AE$243</definedName>
-    <definedName name="A108298205V_Data">Data1!$AE$11:$AE$243</definedName>
-    <definedName name="A108298205V_Latest">Data1!$AE$243</definedName>
-    <definedName name="A108299731L">Data1!$M$1:$M$10,Data1!$M$11:$M$243</definedName>
-    <definedName name="A108299731L_Data">Data1!$M$11:$M$243</definedName>
-    <definedName name="A108299731L_Latest">Data1!$M$243</definedName>
-    <definedName name="A108299732R">Data1!$D$1:$D$10,Data1!$D$215:$D$243</definedName>
-    <definedName name="A108299732R_Data">Data1!$D$215:$D$243</definedName>
-    <definedName name="A108299732R_Latest">Data1!$D$243</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$243</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$243</definedName>
+    <definedName name="A108267741W">Data1!$P$1:$P$10,Data1!$P$11:$P$245</definedName>
+    <definedName name="A108267741W_Data">Data1!$P$11:$P$245</definedName>
+    <definedName name="A108267741W_Latest">Data1!$P$245</definedName>
+    <definedName name="A108267742X">Data1!$G$1:$G$10,Data1!$G$215:$G$245</definedName>
+    <definedName name="A108267742X_Data">Data1!$G$215:$G$245</definedName>
+    <definedName name="A108267742X_Latest">Data1!$G$245</definedName>
+    <definedName name="A108267762J">Data1!$R$1:$R$10,Data1!$R$11:$R$245</definedName>
+    <definedName name="A108267762J_Data">Data1!$R$11:$R$245</definedName>
+    <definedName name="A108267762J_Latest">Data1!$R$245</definedName>
+    <definedName name="A108267763K">Data1!$I$1:$I$10,Data1!$I$215:$I$245</definedName>
+    <definedName name="A108267763K_Data">Data1!$I$215:$I$245</definedName>
+    <definedName name="A108267763K_Latest">Data1!$I$245</definedName>
+    <definedName name="A108269260V">Data1!$AB$1:$AB$10,Data1!$AB$11:$AB$245</definedName>
+    <definedName name="A108269260V_Data">Data1!$AB$11:$AB$245</definedName>
+    <definedName name="A108269260V_Latest">Data1!$AB$245</definedName>
+    <definedName name="A108272256L">Data1!$O$1:$O$10,Data1!$O$11:$O$245</definedName>
+    <definedName name="A108272256L_Data">Data1!$O$11:$O$245</definedName>
+    <definedName name="A108272256L_Latest">Data1!$O$245</definedName>
+    <definedName name="A108272257R">Data1!$F$1:$F$10,Data1!$F$215:$F$245</definedName>
+    <definedName name="A108272257R_Data">Data1!$F$215:$F$245</definedName>
+    <definedName name="A108272257R_Latest">Data1!$F$245</definedName>
+    <definedName name="A108272298K">Data1!$N$1:$N$10,Data1!$N$11:$N$245</definedName>
+    <definedName name="A108272298K_Data">Data1!$N$11:$N$245</definedName>
+    <definedName name="A108272298K_Latest">Data1!$N$245</definedName>
+    <definedName name="A108272299L">Data1!$E$1:$E$10,Data1!$E$215:$E$245</definedName>
+    <definedName name="A108272299L_Data">Data1!$E$215:$E$245</definedName>
+    <definedName name="A108272299L_Latest">Data1!$E$245</definedName>
+    <definedName name="A108273712X">Data1!$Y$1:$Y$10,Data1!$Y$11:$Y$245</definedName>
+    <definedName name="A108273712X_Data">Data1!$Y$11:$Y$245</definedName>
+    <definedName name="A108273712X_Latest">Data1!$Y$245</definedName>
+    <definedName name="A108273775J">Data1!$T$1:$T$10,Data1!$T$11:$T$245</definedName>
+    <definedName name="A108273775J_Data">Data1!$T$11:$T$245</definedName>
+    <definedName name="A108273775J_Latest">Data1!$T$245</definedName>
+    <definedName name="A108275280T">Data1!$AI$1:$AI$10,Data1!$AI$11:$AI$245</definedName>
+    <definedName name="A108275280T_Data">Data1!$AI$11:$AI$245</definedName>
+    <definedName name="A108275280T_Latest">Data1!$AI$245</definedName>
+    <definedName name="A108275301T">Data1!$AK$1:$AK$10,Data1!$AK$11:$AK$245</definedName>
+    <definedName name="A108275301T_Data">Data1!$AK$11:$AK$245</definedName>
+    <definedName name="A108275301T_Latest">Data1!$AK$245</definedName>
+    <definedName name="A108276981A">Data1!$K$1:$K$10,Data1!$K$11:$K$245</definedName>
+    <definedName name="A108276981A_Data">Data1!$K$11:$K$245</definedName>
+    <definedName name="A108276981A_Latest">Data1!$K$245</definedName>
+    <definedName name="A108276982C">Data1!$B$1:$B$10,Data1!$B$215:$B$245</definedName>
+    <definedName name="A108276982C_Data">Data1!$B$215:$B$245</definedName>
+    <definedName name="A108276982C_Latest">Data1!$B$245</definedName>
+    <definedName name="A108279886J">Data1!$AJ$1:$AJ$10,Data1!$AJ$11:$AJ$245</definedName>
+    <definedName name="A108279886J_Data">Data1!$AJ$11:$AJ$245</definedName>
+    <definedName name="A108279886J_Latest">Data1!$AJ$245</definedName>
+    <definedName name="A108284387K">Data1!$AC$1:$AC$10,Data1!$AC$11:$AC$245</definedName>
+    <definedName name="A108284387K_Data">Data1!$AC$11:$AC$245</definedName>
+    <definedName name="A108284387K_Latest">Data1!$AC$245</definedName>
+    <definedName name="A108287418V">Data1!$X$1:$X$10,Data1!$X$11:$X$245</definedName>
+    <definedName name="A108287418V_Data">Data1!$X$11:$X$245</definedName>
+    <definedName name="A108287418V_Latest">Data1!$X$245</definedName>
+    <definedName name="A108287425T">Data1!$Z$1:$Z$10,Data1!$Z$11:$Z$245</definedName>
+    <definedName name="A108287425T_Data">Data1!$Z$11:$Z$245</definedName>
+    <definedName name="A108287425T_Latest">Data1!$Z$245</definedName>
+    <definedName name="A108287467R">Data1!$U$1:$U$10,Data1!$U$11:$U$245</definedName>
+    <definedName name="A108287467R_Data">Data1!$U$11:$U$245</definedName>
+    <definedName name="A108287467R_Latest">Data1!$U$245</definedName>
+    <definedName name="A108288930X">Data1!$AD$1:$AD$10,Data1!$AD$11:$AD$245</definedName>
+    <definedName name="A108288930X_Data">Data1!$AD$11:$AD$245</definedName>
+    <definedName name="A108288930X_Latest">Data1!$AD$245</definedName>
+    <definedName name="A108290302A">Data1!$Q$1:$Q$10,Data1!$Q$11:$Q$245</definedName>
+    <definedName name="A108290302A_Data">Data1!$Q$11:$Q$245</definedName>
+    <definedName name="A108290302A_Latest">Data1!$Q$245</definedName>
+    <definedName name="A108290303C">Data1!$H$1:$H$10,Data1!$H$215:$H$245</definedName>
+    <definedName name="A108290303C_Data">Data1!$H$215:$H$245</definedName>
+    <definedName name="A108290303C_Latest">Data1!$H$245</definedName>
+    <definedName name="A108290330K">Data1!$L$1:$L$10,Data1!$L$11:$L$245</definedName>
+    <definedName name="A108290330K_Data">Data1!$L$11:$L$245</definedName>
+    <definedName name="A108290330K_Latest">Data1!$L$245</definedName>
+    <definedName name="A108290331L">Data1!$C$1:$C$10,Data1!$C$215:$C$245</definedName>
+    <definedName name="A108290331L_Data">Data1!$C$215:$C$245</definedName>
+    <definedName name="A108290331L_Latest">Data1!$C$245</definedName>
+    <definedName name="A108293403T">Data1!$AG$1:$AG$10,Data1!$AG$11:$AG$245</definedName>
+    <definedName name="A108293403T_Data">Data1!$AG$11:$AG$245</definedName>
+    <definedName name="A108293403T_Latest">Data1!$AG$245</definedName>
+    <definedName name="A108293417F">Data1!$AH$1:$AH$10,Data1!$AH$11:$AH$245</definedName>
+    <definedName name="A108293417F_Data">Data1!$AH$11:$AH$245</definedName>
+    <definedName name="A108293417F_Latest">Data1!$AH$245</definedName>
+    <definedName name="A108295076F">Data1!$S$1:$S$10,Data1!$S$11:$S$245</definedName>
+    <definedName name="A108295076F_Data">Data1!$S$11:$S$245</definedName>
+    <definedName name="A108295076F_Latest">Data1!$S$245</definedName>
+    <definedName name="A108295077J">Data1!$J$1:$J$10,Data1!$J$215:$J$245</definedName>
+    <definedName name="A108295077J_Data">Data1!$J$215:$J$245</definedName>
+    <definedName name="A108295077J_Latest">Data1!$J$245</definedName>
+    <definedName name="A108296693F">Data1!$W$1:$W$10,Data1!$W$11:$W$245</definedName>
+    <definedName name="A108296693F_Data">Data1!$W$11:$W$245</definedName>
+    <definedName name="A108296693F_Latest">Data1!$W$245</definedName>
+    <definedName name="A108296700T">Data1!$V$1:$V$10,Data1!$V$11:$V$245</definedName>
+    <definedName name="A108296700T_Data">Data1!$V$11:$V$245</definedName>
+    <definedName name="A108296700T_Latest">Data1!$V$245</definedName>
+    <definedName name="A108296714F">Data1!$AA$1:$AA$10,Data1!$AA$11:$AA$245</definedName>
+    <definedName name="A108296714F_Data">Data1!$AA$11:$AA$245</definedName>
+    <definedName name="A108296714F_Latest">Data1!$AA$245</definedName>
+    <definedName name="A108298198J">Data1!$AF$1:$AF$10,Data1!$AF$11:$AF$245</definedName>
+    <definedName name="A108298198J_Data">Data1!$AF$11:$AF$245</definedName>
+    <definedName name="A108298198J_Latest">Data1!$AF$245</definedName>
+    <definedName name="A108298205V">Data1!$AE$1:$AE$10,Data1!$AE$11:$AE$245</definedName>
+    <definedName name="A108298205V_Data">Data1!$AE$11:$AE$245</definedName>
+    <definedName name="A108298205V_Latest">Data1!$AE$245</definedName>
+    <definedName name="A108299731L">Data1!$M$1:$M$10,Data1!$M$11:$M$245</definedName>
+    <definedName name="A108299731L_Data">Data1!$M$11:$M$245</definedName>
+    <definedName name="A108299731L_Latest">Data1!$M$245</definedName>
+    <definedName name="A108299732R">Data1!$D$1:$D$10,Data1!$D$215:$D$245</definedName>
+    <definedName name="A108299732R_Data">Data1!$D$215:$D$245</definedName>
+    <definedName name="A108299732R_Latest">Data1!$D$245</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$245</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$245</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -27420,6 +27420,240 @@
       </text>
     </comment>
     <comment ref="AK243" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC244" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD244" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE244" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF244" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG244" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH244" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI244" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ244" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK244" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC245" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD245" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE245" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF245" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG245" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH245" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI245" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ245" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK245" authorId="0">
       <text>
         <r>
           <rPr>
@@ -27676,7 +27910,7 @@
     <t>Freq.</t>
   </si>
   <si>
-    <t>© Commonwealth of Australia  2021</t>
+    <t>© Commonwealth of Australia  2022</t>
   </si>
 </sst>
 </file>
@@ -28378,10 +28612,10 @@
         <v>43647</v>
       </c>
       <c r="G12" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H12" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I12" s="11" t="s">
         <v>27</v>
@@ -28410,10 +28644,10 @@
         <v>43647</v>
       </c>
       <c r="G13" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H13" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I13" s="11" t="s">
         <v>27</v>
@@ -28442,10 +28676,10 @@
         <v>43647</v>
       </c>
       <c r="G14" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H14" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I14" s="11" t="s">
         <v>27</v>
@@ -28474,10 +28708,10 @@
         <v>43647</v>
       </c>
       <c r="G15" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H15" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I15" s="11" t="s">
         <v>27</v>
@@ -28506,10 +28740,10 @@
         <v>43647</v>
       </c>
       <c r="G16" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H16" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I16" s="11" t="s">
         <v>27</v>
@@ -28538,10 +28772,10 @@
         <v>43647</v>
       </c>
       <c r="G17" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H17" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I17" s="11" t="s">
         <v>27</v>
@@ -28570,10 +28804,10 @@
         <v>43647</v>
       </c>
       <c r="G18" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H18" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I18" s="11" t="s">
         <v>27</v>
@@ -28602,10 +28836,10 @@
         <v>43647</v>
       </c>
       <c r="G19" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H19" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I19" s="11" t="s">
         <v>27</v>
@@ -28634,10 +28868,10 @@
         <v>43647</v>
       </c>
       <c r="G20" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H20" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I20" s="11" t="s">
         <v>27</v>
@@ -28666,10 +28900,10 @@
         <v>37438</v>
       </c>
       <c r="G21" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H21" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I21" s="11" t="s">
         <v>40</v>
@@ -28698,10 +28932,10 @@
         <v>37438</v>
       </c>
       <c r="G22" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H22" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I22" s="11" t="s">
         <v>40</v>
@@ -28730,10 +28964,10 @@
         <v>37438</v>
       </c>
       <c r="G23" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H23" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I23" s="11" t="s">
         <v>40</v>
@@ -28762,10 +28996,10 @@
         <v>37438</v>
       </c>
       <c r="G24" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H24" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I24" s="11" t="s">
         <v>40</v>
@@ -28794,10 +29028,10 @@
         <v>37438</v>
       </c>
       <c r="G25" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H25" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I25" s="11" t="s">
         <v>40</v>
@@ -28826,10 +29060,10 @@
         <v>37438</v>
       </c>
       <c r="G26" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H26" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I26" s="11" t="s">
         <v>40</v>
@@ -28858,10 +29092,10 @@
         <v>37438</v>
       </c>
       <c r="G27" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H27" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I27" s="11" t="s">
         <v>40</v>
@@ -28890,10 +29124,10 @@
         <v>37438</v>
       </c>
       <c r="G28" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H28" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I28" s="11" t="s">
         <v>40</v>
@@ -28922,10 +29156,10 @@
         <v>37438</v>
       </c>
       <c r="G29" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H29" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I29" s="11" t="s">
         <v>40</v>
@@ -28954,10 +29188,10 @@
         <v>37438</v>
       </c>
       <c r="G30" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H30" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I30" s="11" t="s">
         <v>40</v>
@@ -28986,10 +29220,10 @@
         <v>37438</v>
       </c>
       <c r="G31" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H31" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I31" s="11" t="s">
         <v>40</v>
@@ -29018,10 +29252,10 @@
         <v>37438</v>
       </c>
       <c r="G32" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H32" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I32" s="11" t="s">
         <v>40</v>
@@ -29050,10 +29284,10 @@
         <v>37438</v>
       </c>
       <c r="G33" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H33" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I33" s="11" t="s">
         <v>40</v>
@@ -29082,10 +29316,10 @@
         <v>37438</v>
       </c>
       <c r="G34" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H34" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I34" s="11" t="s">
         <v>40</v>
@@ -29114,10 +29348,10 @@
         <v>37438</v>
       </c>
       <c r="G35" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H35" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I35" s="11" t="s">
         <v>40</v>
@@ -29146,10 +29380,10 @@
         <v>37438</v>
       </c>
       <c r="G36" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H36" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I36" s="11" t="s">
         <v>40</v>
@@ -29178,10 +29412,10 @@
         <v>37438</v>
       </c>
       <c r="G37" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H37" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I37" s="11" t="s">
         <v>40</v>
@@ -29210,10 +29444,10 @@
         <v>37438</v>
       </c>
       <c r="G38" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H38" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I38" s="11" t="s">
         <v>40</v>
@@ -29242,10 +29476,10 @@
         <v>37438</v>
       </c>
       <c r="G39" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H39" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I39" s="11" t="s">
         <v>40</v>
@@ -29274,10 +29508,10 @@
         <v>37438</v>
       </c>
       <c r="G40" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H40" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I40" s="11" t="s">
         <v>40</v>
@@ -29306,10 +29540,10 @@
         <v>37438</v>
       </c>
       <c r="G41" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H41" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I41" s="11" t="s">
         <v>40</v>
@@ -29338,10 +29572,10 @@
         <v>37438</v>
       </c>
       <c r="G42" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H42" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I42" s="11" t="s">
         <v>40</v>
@@ -29370,10 +29604,10 @@
         <v>37438</v>
       </c>
       <c r="G43" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H43" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I43" s="11" t="s">
         <v>40</v>
@@ -29402,10 +29636,10 @@
         <v>37438</v>
       </c>
       <c r="G44" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H44" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I44" s="11" t="s">
         <v>40</v>
@@ -29434,10 +29668,10 @@
         <v>37438</v>
       </c>
       <c r="G45" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H45" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I45" s="11" t="s">
         <v>40</v>
@@ -29466,10 +29700,10 @@
         <v>37438</v>
       </c>
       <c r="G46" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H46" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I46" s="11" t="s">
         <v>40</v>
@@ -29498,10 +29732,10 @@
         <v>37438</v>
       </c>
       <c r="G47" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H47" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I47" s="11" t="s">
         <v>40</v>
@@ -29572,7 +29806,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK243"/>
+  <dimension ref="A1:AK245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -30379,112 +30613,112 @@
         <v>24</v>
       </c>
       <c r="B8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="C8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="D8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="E8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="F8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="G8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="I8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="J8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="K8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="L8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="M8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="N8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="O8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="P8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="Q8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="R8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="S8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="T8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="U8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="V8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="W8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="X8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="Y8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="Z8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="AA8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="AB8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="AC8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="AD8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="AE8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="AF8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="AG8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="AH8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="AI8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="AJ8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="AK8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.2">
@@ -30492,112 +30726,112 @@
         <v>25</v>
       </c>
       <c r="B9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="N9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="O9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="R9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="S9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="T9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="U9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="V9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="W9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="X9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Y9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Z9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AA9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AB9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AC9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AD9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AE9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AF9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AG9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AH9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AI9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AJ9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AK9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.2">
@@ -47339,6 +47573,196 @@
       <c r="AI243" s="9"/>
       <c r="AJ243" s="9"/>
       <c r="AK243" s="9"/>
+    </row>
+    <row r="244" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A244" s="10">
+        <v>44531</v>
+      </c>
+      <c r="B244" s="8">
+        <v>20591</v>
+      </c>
+      <c r="C244" s="8">
+        <v>6407</v>
+      </c>
+      <c r="D244" s="8">
+        <v>5414</v>
+      </c>
+      <c r="E244" s="8">
+        <v>4963</v>
+      </c>
+      <c r="F244" s="8">
+        <v>1411</v>
+      </c>
+      <c r="G244" s="8">
+        <v>1510</v>
+      </c>
+      <c r="H244" s="8">
+        <v>335</v>
+      </c>
+      <c r="I244" s="8">
+        <v>104</v>
+      </c>
+      <c r="J244" s="8">
+        <v>447</v>
+      </c>
+      <c r="K244" s="9">
+        <v>11562.5</v>
+      </c>
+      <c r="L244" s="9">
+        <v>4680.2</v>
+      </c>
+      <c r="M244" s="9">
+        <v>2979</v>
+      </c>
+      <c r="N244" s="9">
+        <v>2321.4</v>
+      </c>
+      <c r="O244" s="9">
+        <v>551</v>
+      </c>
+      <c r="P244" s="9">
+        <v>615</v>
+      </c>
+      <c r="Q244" s="9">
+        <v>131.1</v>
+      </c>
+      <c r="R244" s="9">
+        <v>37.9</v>
+      </c>
+      <c r="S244" s="9">
+        <v>246.9</v>
+      </c>
+      <c r="T244" s="9">
+        <v>10340.700000000001</v>
+      </c>
+      <c r="U244" s="9">
+        <v>4141.2</v>
+      </c>
+      <c r="V244" s="9">
+        <v>2626.1</v>
+      </c>
+      <c r="W244" s="9">
+        <v>2194.4</v>
+      </c>
+      <c r="X244" s="9">
+        <v>516.79999999999995</v>
+      </c>
+      <c r="Y244" s="9">
+        <v>586.29999999999995</v>
+      </c>
+      <c r="Z244" s="9">
+        <v>128.9</v>
+      </c>
+      <c r="AA244" s="9">
+        <v>31.2</v>
+      </c>
+      <c r="AB244" s="9">
+        <v>223</v>
+      </c>
+      <c r="AC244" s="9"/>
+      <c r="AD244" s="9"/>
+      <c r="AE244" s="9"/>
+      <c r="AF244" s="9"/>
+      <c r="AG244" s="9"/>
+      <c r="AH244" s="9"/>
+      <c r="AI244" s="9"/>
+      <c r="AJ244" s="9"/>
+      <c r="AK244" s="9"/>
+    </row>
+    <row r="245" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A245" s="10">
+        <v>44562</v>
+      </c>
+      <c r="B245" s="8">
+        <v>15814</v>
+      </c>
+      <c r="C245" s="8">
+        <v>4830</v>
+      </c>
+      <c r="D245" s="8">
+        <v>4181</v>
+      </c>
+      <c r="E245" s="8">
+        <v>3688</v>
+      </c>
+      <c r="F245" s="8">
+        <v>1091</v>
+      </c>
+      <c r="G245" s="8">
+        <v>1290</v>
+      </c>
+      <c r="H245" s="8">
+        <v>275</v>
+      </c>
+      <c r="I245" s="8">
+        <v>75</v>
+      </c>
+      <c r="J245" s="8">
+        <v>384</v>
+      </c>
+      <c r="K245" s="9">
+        <v>9112.2000000000007</v>
+      </c>
+      <c r="L245" s="9">
+        <v>3623.8</v>
+      </c>
+      <c r="M245" s="9">
+        <v>2406.9</v>
+      </c>
+      <c r="N245" s="9">
+        <v>1751.8</v>
+      </c>
+      <c r="O245" s="9">
+        <v>449.6</v>
+      </c>
+      <c r="P245" s="9">
+        <v>520</v>
+      </c>
+      <c r="Q245" s="9">
+        <v>110.7</v>
+      </c>
+      <c r="R245" s="9">
+        <v>27.8</v>
+      </c>
+      <c r="S245" s="9">
+        <v>221.6</v>
+      </c>
+      <c r="T245" s="9">
+        <v>10974</v>
+      </c>
+      <c r="U245" s="9">
+        <v>4546.6000000000004</v>
+      </c>
+      <c r="V245" s="9">
+        <v>2918.5</v>
+      </c>
+      <c r="W245" s="9">
+        <v>2156.8000000000002</v>
+      </c>
+      <c r="X245" s="9">
+        <v>503.9</v>
+      </c>
+      <c r="Y245" s="9">
+        <v>599.6</v>
+      </c>
+      <c r="Z245" s="9">
+        <v>125</v>
+      </c>
+      <c r="AA245" s="9">
+        <v>36</v>
+      </c>
+      <c r="AB245" s="9">
+        <v>273.89999999999998</v>
+      </c>
+      <c r="AC245" s="9"/>
+      <c r="AD245" s="9"/>
+      <c r="AE245" s="9"/>
+      <c r="AF245" s="9"/>
+      <c r="AG245" s="9"/>
+      <c r="AH245" s="9"/>
+      <c r="AI245" s="9"/>
+      <c r="AJ245" s="9"/>
+      <c r="AK245" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
